--- a/xlsx/高山气候_intext.xlsx
+++ b/xlsx/高山气候_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <si>
     <t>高山气候</t>
   </si>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%96%AF</t>
@@ -311,19 +311,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -653,27 +653,21 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
   </si>
   <si>
@@ -683,21 +677,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
   </si>
   <si>
@@ -707,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -725,9 +713,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
   </si>
   <si>
@@ -737,19 +722,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -773,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -797,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>大氣科學</t>
+    <t>大气科学</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2052,7 @@
         <v>28</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -2099,7 +2081,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -2128,7 +2110,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -2157,7 +2139,7 @@
         <v>64</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -2186,7 +2168,7 @@
         <v>66</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -2215,7 +2197,7 @@
         <v>42</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -2244,7 +2226,7 @@
         <v>68</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -2273,7 +2255,7 @@
         <v>44</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -2302,7 +2284,7 @@
         <v>50</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -2331,7 +2313,7 @@
         <v>54</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -2360,7 +2342,7 @@
         <v>70</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -4561,7 +4543,7 @@
         <v>215</v>
       </c>
       <c r="F118" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4587,10 +4569,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F119" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4616,10 +4598,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F120" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4674,10 +4656,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F122" t="s">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -4703,10 +4685,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F123" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4761,10 +4743,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F125" t="s">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4790,10 +4772,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G126" t="n">
         <v>8</v>
@@ -4848,10 +4830,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F128" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4906,10 +4888,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F130" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4993,10 +4975,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F133" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5022,10 +5004,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F134" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5051,10 +5033,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F135" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5109,10 +5091,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F137" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5138,10 +5120,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F138" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5167,10 +5149,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F139" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5196,10 +5178,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F140" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5225,10 +5207,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F141" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5254,10 +5236,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F142" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5283,10 +5265,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F143" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5312,10 +5294,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F144" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5341,10 +5323,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F145" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5370,10 +5352,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F146" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5399,10 +5381,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F147" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
